--- a/biology/Zoologie/Eumorpha_satellitia/Eumorpha_satellitia.xlsx
+++ b/biology/Zoologie/Eumorpha_satellitia/Eumorpha_satellitia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumorpha satellitia est une espèce d'insectes lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, de la tribu des Philampelini et du genre Eumorpha.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre se trouve principalement en Amérique centrale et Amérique du Sud.
 </t>
@@ -568,7 +584,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les chenilles se développent sur des plantes grimpantes du genre Cissus particulièrmeent  Cissus pseudosicyoides et Cissus rhombifolia.
 Les chrysalides sont souterraines.</t>
@@ -599,20 +617,90 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Eumorpha satellitia a été décrite par le naturaliste suédois Carl von Linné en 1771 sous le nom initial de Sphinx satellitia[1].
-Synonymie
-Sphinx satellitia Linné, 1771 Protonyme
-Taxinomie
-Liste des sous-espèces
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Eumorpha satellitia a été décrite par le naturaliste suédois Carl von Linné en 1771 sous le nom initial de Sphinx satellitia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eumorpha_satellitia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eumorpha_satellitia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sphinx satellitia Linné, 1771 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eumorpha_satellitia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eumorpha_satellitia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des sous-espèces
 Eumorpha satellitia satellitia (Amérique du Nord : Louisiane. Amérique centrale : Jamaïque, Mexico, Belize, Guatemala. Amérique du Sud : Bolivie, Brésil Uruguay)
 Eumorpha satellitia excessus (Gehlen, 1926) (Brésil)
 Synonyme pour cette sous-espèce
-Eumorpha satellitia rosea Brou, 1980 [2]
+Eumorpha satellitia rosea Brou, 1980 
 Eumorpha satellitia licaon (Cramer, 1775) (Texas, Mexique, Nicaragua, Costa Rica, sud du Brésil et Bolivie, Paraguay)
 Synonymes pour cette sous-espèce
-Sphinx licaon Cramer, 1776[3]
+Sphinx licaon Cramer, 1776
 Eumorpha satellitia macasensis (Clark, 1922)
 Eumorpha satellitia posticatus (Grote, 1865) (Cuba les  Bahamas)
 Synonyme pour cette sous-espèce
